--- a/medicine/Enfance/Christian_Broutin/Christian_Broutin.xlsx
+++ b/medicine/Enfance/Christian_Broutin/Christian_Broutin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christian Broutin, né le 5 mars 1933 à Chartres, est un peintre, illustrateur affichiste et réalisateur français.
 Il est connu notamment pour avoir dessiné des affiches de cinéma, des illustrations de romans et de littérature pour la jeunesse, et des timbres-poste français. Son activité principale actuelle est la peinture.
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La mère de Christian Broutin meurt en 1938 et il est élevé par ses grands-parents. Après le brevet d'études du premier cycle en 1947, il suit les cours de l'Académie Charpentier de Paris pour préparer les concours d'entrée des grandes écoles d'art.
-Diplômé en 1951 de l'École nationale supérieure des arts appliqués et des métiers d'art, il commence sa carrière dans la publicité et la réalisation d'affiches de cinéma aux côtés de René Ferracci[1]. Celle pour le film Jules et Jim de François Truffaut reçoit le prix Toulouse-Lautrec en 1962. Il a aussi illustré des magazines, des livres pour la jeunesse et réalisé des reportages photographiques. En 1983, il reçoit le grand prix de l'affiche française.
-Dans les années 1990, il travaille principalement dans l'illustration d'ouvrages pour la jeunesse. C'est ainsi qu'il est choisi par le Service national du timbre-poste (SNTP) grâce à son éditeur Gallimard[2] pour dessiner un timbre-poste. Il réalise l'illustration pour le 50e Salon philatélique d'automne de Paris, émis en novembre 1996 (une tour Eiffel ludique), bien qu'il estime que « ce premier timbre ne [lui] ressemblait pas du tout ». En effet, l'artiste préfère travailler sur la nature[2]. Il affirme avoir toujours voulu « dessiner au plus proche de la réalité »[2], en y introduisant cependant toujours une dimension poétique. En peinture, il a fait partie du groupe des maxiréalistes, où le décalage avec la réalité devient un élément déterminant.                   En 2017, il est le créateur du logo « Les bouffons de la cuisine » pour son ami le chef étoilé Michel Trama[réf. nécessaire].                                     Traversant les époques et les modes, il offfre à travers son regard la vision d'un artiste témoin et passeur des multiples influences qui ont transformé la France et le monde. 
-Créée à La Roche)Guyon  fin 2019, l'association "Les amis de Christian Broutin", s'est donné le but de promouvoir et péréniser son oeuvre, riche de près de 70 années, à travers ses différentes formes : affiches, presse, publicité, timbrpostes, peinture, photo, sculpture etc..                                                                              Le "Grain de Sel", espace associatif dédié à son oeuvre, organise depuis 2024 des expositions sur ces différentes thématiques[3]
+Diplômé en 1951 de l'École nationale supérieure des arts appliqués et des métiers d'art, il commence sa carrière dans la publicité et la réalisation d'affiches de cinéma aux côtés de René Ferracci. Celle pour le film Jules et Jim de François Truffaut reçoit le prix Toulouse-Lautrec en 1962. Il a aussi illustré des magazines, des livres pour la jeunesse et réalisé des reportages photographiques. En 1983, il reçoit le grand prix de l'affiche française.
+Dans les années 1990, il travaille principalement dans l'illustration d'ouvrages pour la jeunesse. C'est ainsi qu'il est choisi par le Service national du timbre-poste (SNTP) grâce à son éditeur Gallimard pour dessiner un timbre-poste. Il réalise l'illustration pour le 50e Salon philatélique d'automne de Paris, émis en novembre 1996 (une tour Eiffel ludique), bien qu'il estime que « ce premier timbre ne [lui] ressemblait pas du tout ». En effet, l'artiste préfère travailler sur la nature. Il affirme avoir toujours voulu « dessiner au plus proche de la réalité », en y introduisant cependant toujours une dimension poétique. En peinture, il a fait partie du groupe des maxiréalistes, où le décalage avec la réalité devient un élément déterminant.                   En 2017, il est le créateur du logo « Les bouffons de la cuisine » pour son ami le chef étoilé Michel Trama[réf. nécessaire].                                     Traversant les époques et les modes, il offfre à travers son regard la vision d'un artiste témoin et passeur des multiples influences qui ont transformé la France et le monde. 
+Créée à La Roche)Guyon  fin 2019, l'association "Les amis de Christian Broutin", s'est donné le but de promouvoir et péréniser son oeuvre, riche de près de 70 années, à travers ses différentes formes : affiches, presse, publicité, timbrpostes, peinture, photo, sculpture etc..                                                                              Le "Grain de Sel", espace associatif dédié à son oeuvre, organise depuis 2024 des expositions sur ces différentes thématiques
 </t>
         </is>
       </c>
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Expositions personnelles
-Dijon vu par Christian Broutin, Dijon, juin-septembre 2000.
+          <t>Expositions personnelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dijon vu par Christian Broutin, Dijon, juin-septembre 2000.
 Frankfurter Hof, Mayence (Allemagne), 2001.
 Château de Marsannay, 2002.
 Lagny-sur-Marne, 2004.
@@ -565,9 +584,43 @@
 Paysages du Vexin, musée du Vexin français, Théméricourt (Val-d'Oise), 6 juillet-1er septembre 2019.
 Terra Mater, exposition de sculptures, château de La Roche-Guyon, 28 juin-29 novembre 2020.
 Les chemins de l'Epte, exposition de peintures, domaine de Villarceaux, Chaussy, été 2021.
-Villages, nuages, musée du Vexin français, Téméricourt (Val d'Oise), 8 juillet-1er octobre 2023.
-Expositions collectives
-George Sand, Interprétations 2004, Châteauroux, 2004.
+Villages, nuages, musée du Vexin français, Téméricourt (Val d'Oise), 8 juillet-1er octobre 2023.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Christian_Broutin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Broutin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Expositions collectives</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>George Sand, Interprétations 2004, Châteauroux, 2004.
 6e Salon international des Rencontres picturales de Paris, 2005.
 Salon d'automne, Paris, 2005.
 Des peintres et des arbres, château de La Roche-Guyon, 2005.
@@ -576,10 +629,47 @@
 Les Maxiréalistes, galerie Terre des Arts, Paris, 2009.
 23e Salon des arts de Pontoise, 2009.
 Le Naturoptère, drôle de bête !, Sérignan-du-Comtat, 2010-2011.
-Art Capital (Salon Comparaisons), Paris, 2017.
-Publications
-Illustration d'ouvrages pour la jeunesse
-Christian Broutin illustre des ouvrages pour la jeunesse, notamment pour la collection « Les Premières découvertes » chez Gallimard et « le Père Castor » chez Flammarion :
+Art Capital (Salon Comparaisons), Paris, 2017.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Christian_Broutin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Broutin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Illustration d'ouvrages pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Christian Broutin illustre des ouvrages pour la jeunesse, notamment pour la collection « Les Premières découvertes » chez Gallimard et « le Père Castor » chez Flammarion :
 Bateaux d'aujourd'hui, Jean Riverain et Georges Blond, illustrations: Christian Broutin et quatorze autres artistes: Pierre Bentegeat, Albert Brenet, Michelle Dallemer, Philippe Degrave, P. Fauvet, Giovanni Giannini, P. Leroy, Jean Lhuer, Jean Marcellin, Maurice Mathonnière, Henri Mercier, G. Michel, Jean-Michel Rabec, Yves Thos, éd. Gautier-Languereau, coll. Une sélection Paris Match, 1963.
 Le Seigneur des anneaux, Gallimard Jeunesse, coll. « Folio Junior », 1988 ;
 L'arbre, Gallimard Jeunesse, 1989 ;
@@ -606,47 +696,128 @@
 Le ciel, le soleil et le jour de Jean-Pierre Verdet avec Henri Galeron, Gallimard Jeunesse, 2005
 Le ciel, les étoiles et la nuit de Jean-Pierre Verdet avec Henri Galeron, Gallimard Jeunesse, 2005
 L'histoire de la Terre, avec J.P. Verdet, Gallimard Jeunesse, 2006
-Le château de La Roche-Guyon, avec Corinne Albaut, Éditions du Patrimoine, 2010.
-Littérature
-L'origine du monde est à La Roche-Guyon, F. Révèrend, Éditions du Palais, 2011.
+Le château de La Roche-Guyon, avec Corinne Albaut, Éditions du Patrimoine, 2010.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Christian_Broutin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Broutin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'origine du monde est à La Roche-Guyon, F. Révèrend, Éditions du Palais, 2011.
 Les recettes d'amour, texte de F. Dax-Boyer, dessins de C. Broutin, Éditions de l'Amandier, 2014.
 Mon Bestiaire amoureux, texte de F. Dax-Boyer, dessins de C.Broutin, Editions de l'Oeil, 2017.
-"Voyage Voyage", texte de F. Dax-Bpyer, dessins de C. Broutin, Editions du Palais, 2023
-Peinture
-Vitesse de la lumière. Instantanés, texte d'Andrée Chedid, Éditions de l'Amandier, collection « Le Voir dit », 2006.
+"Voyage Voyage", texte de F. Dax-Bpyer, dessins de C. Broutin, Editions du Palais, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Christian_Broutin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Broutin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Peinture</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Vitesse de la lumière. Instantanés, texte d'Andrée Chedid, Éditions de l'Amandier, collection « Le Voir dit », 2006.
 Parmi landes et cités, catalogue d'exposition, Sannois, 2012.
 Méandres, catalogue d'exposition, château de La Roche-Guyon, 2015.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Christian_Broutin</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Christian_Broutin</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Christian_Broutin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Broutin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Timbre de France
-« Cinquantième Salon philatélique d'automne de Paris », 12 novembre 1996.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Timbre de France</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>« Cinquantième Salon philatélique d'automne de Paris », 12 novembre 1996.
 « Espace européen Sar-Lor-Lux », émission conjointe Allemagne-France-Luxembourg, 17 octobre 1997.
 « Europa : la Fête de la musique », 15 juin 1998.
 « La Camargue », réalisé à partir de papier découpé, 26 avril 1999.
@@ -663,45 +834,118 @@
 « Charte de l'environnement », 6 juin 2005.
 « Nature de France : jeunes animaux domestiques », bloc de quatre timbre mis en page par Jean-Paul Cousin, 24 avril 2006.
 « Salon du timbre et de l'écrit », bloc spécial illustré par les timbres « Jardins de France » de 2005 (avec ceux de Michel Bez de 2006), 17 juin 2006. Phil@poste Boulazac a imprimé ce bloc pendant le Salon en démonstration publique et en utilisant trois types d'impression (héliogravure, sérigraphie et dorure à chaud).
-« Nature de France : les animaux de la préhistoire », bloc de quatre timbres, 21 avril 2008.
-Timbre de service
-« Tigre de Sibérie », Unesco, 2006.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Christian_Broutin</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Christian_Broutin</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+« Nature de France : les animaux de la préhistoire », bloc de quatre timbres, 21 avril 2008.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Christian_Broutin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Broutin</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Philatélie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Timbre de service</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>« Tigre de Sibérie », Unesco, 2006.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Christian_Broutin</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Broutin</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Cinéma</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Filmographie
-La Corrida, 1975, court-métrage réalisé par Christian Broutin. Prix Jean-Vigo 1975.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>La Corrida, 1975, court-métrage réalisé par Christian Broutin. Prix Jean-Vigo 1975.
 L'Hypothèse du tableau volé 1979, réalisé par Raoul Ruiz. Acteur.
 Zig Zag Story, 1983, réalisé par Patrick Schulmann. Acteur.
-Le géant se regarde dans le miroir et ne vit rien, film de Clément Grimm et Antoine Poudret, Lausanne. Participation.
-Affiche de film
-Christian Broutin a réalisé une centaine d'affiches de cinéma, entre 1955 et 1976, notamment :
+Le géant se regarde dans le miroir et ne vit rien, film de Clément Grimm et Antoine Poudret, Lausanne. Participation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Christian_Broutin</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Broutin</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Affiche de film</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Christian Broutin a réalisé une centaine d'affiches de cinéma, entre 1955 et 1976, notamment :
 Pickpocket de Robert Bresson, 1959 ;
 Jules et Jim de François Truffaut. Prix Toulouse-Lautrec 1962 ;
 Chantons sous l'Occupation d'André Halimi, 1976.</t>
